--- a/srv/data/EI_sankey.xlsx
+++ b/srv/data/EI_sankey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrkoci/code/charts/srv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C1C5199-2D48-A942-A35E-B430F4DEB7B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9AE8AD3-50F8-504D-9003-56654B94A166}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="3500" windowWidth="27640" windowHeight="16940" xr2:uid="{9AC7DD12-81AD-EE42-ABAA-CE18417973FE}"/>
+    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{F0383AE8-EA64-1B43-BC6B-4F8EDBDB495B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,48 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Petr Pavel</t>
-  </si>
-  <si>
-    <t>Andrej Babiš</t>
-  </si>
-  <si>
-    <t>Danuše Nerudová</t>
-  </si>
-  <si>
-    <t>Jaroslav Bašta</t>
-  </si>
-  <si>
-    <t>Pavel Fischer</t>
-  </si>
-  <si>
-    <t>Ostatní</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>PETR PAVEL</t>
+  </si>
+  <si>
+    <t>ANDREJ BABIŠ</t>
+  </si>
+  <si>
+    <t>NEÚČAST</t>
+  </si>
+  <si>
+    <t>Voliči SPOLU</t>
+  </si>
+  <si>
+    <t>Voliči ANO</t>
+  </si>
+  <si>
+    <t>Voliči PirStan</t>
+  </si>
+  <si>
+    <t>Voliči SPD</t>
+  </si>
+  <si>
+    <t>Voliči ostatních stran</t>
   </si>
   <si>
     <t>Neúčast</t>
-  </si>
-  <si>
-    <t>Voliči SPOLU</t>
-  </si>
-  <si>
-    <t>Voliči ANO</t>
-  </si>
-  <si>
-    <t>Voliči PirStan</t>
-  </si>
-  <si>
-    <t>Voliči SPD</t>
-  </si>
-  <si>
-    <t>Voliči ostatních stran</t>
-  </si>
-  <si>
-    <t>Neúčastníci + prvovoliči</t>
-  </si>
-  <si>
-    <t>from</t>
   </si>
 </sst>
 </file>
@@ -120,7 +108,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normální 2" xfId="1" xr:uid="{4D8A1F1A-2DBF-1C4E-A3A1-DBC2E1ED35AD}"/>
+    <cellStyle name="Normální 2" xfId="1" xr:uid="{D2D27851-4424-4C41-A32E-3DDF2B7B5930}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -443,197 +431,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12629DA1-FF5A-394C-8F3A-15F2B092433B}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F8938D-9535-744E-A19D-753487AB5EED}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
       <c r="B2" s="2">
-        <v>840000</v>
+        <v>1360000</v>
       </c>
       <c r="C2" s="2">
         <v>50000</v>
       </c>
       <c r="D2" s="2">
-        <v>220000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>20000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>190000</v>
-      </c>
-      <c r="G2" s="2">
-        <v>30000</v>
-      </c>
-      <c r="H2" s="2">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="C3" s="2">
-        <v>1070000</v>
+        <v>1140000</v>
       </c>
       <c r="D3" s="2">
-        <v>50000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>20000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>20000</v>
-      </c>
-      <c r="G3" s="2">
-        <v>20000</v>
-      </c>
-      <c r="H3" s="2">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>500000</v>
+        <v>800000</v>
       </c>
       <c r="C4" s="2">
         <v>20000</v>
       </c>
       <c r="D4" s="2">
-        <v>170000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F4" s="2">
-        <v>30000</v>
-      </c>
-      <c r="G4" s="2">
-        <v>30000</v>
-      </c>
-      <c r="H4" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="C5" s="2">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="D5" s="2">
-        <v>30000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>90000</v>
-      </c>
-      <c r="F5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="G5" s="2">
-        <v>20000</v>
-      </c>
-      <c r="H5" s="2">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
+        <v>680000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>250000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
         <v>220000</v>
       </c>
-      <c r="C6" s="2">
-        <v>210000</v>
-      </c>
-      <c r="D6" s="2">
-        <v>220000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>60000</v>
-      </c>
-      <c r="F6" s="2">
-        <v>70000</v>
-      </c>
-      <c r="G6" s="2">
-        <v>120000</v>
-      </c>
-      <c r="H6" s="2">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
-        <v>90000</v>
-      </c>
       <c r="C7" s="2">
-        <v>280000</v>
+        <v>640000</v>
       </c>
       <c r="D7" s="2">
-        <v>50000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>30000</v>
-      </c>
-      <c r="F7" s="2">
-        <v>40000</v>
-      </c>
-      <c r="G7" s="2">
-        <v>30000</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2230000</v>
+        <v>2010000</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:H7">
+  <conditionalFormatting sqref="B2:C7">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>10001</formula>
     </cfRule>
